--- a/medicine/Sexualité et sexologie/Life/Life.xlsx
+++ b/medicine/Sexualité et sexologie/Life/Life.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sex/Life est une série télévisée américaine en quatorze épisodes d'environ 50 minutes créée par Stacy Rukeyser et mise en ligne les 25 juin 2021[1] et 11 avril 2023 sur la plateforme Netflix. La distribution se compose principalement de Sarah Shahi, Mike Vogel, Adam Demos et Margaret Odette.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sex/Life est une série télévisée américaine en quatorze épisodes d'environ 50 minutes créée par Stacy Rukeyser et mise en ligne les 25 juin 2021 et 11 avril 2023 sur la plateforme Netflix. La distribution se compose principalement de Sarah Shahi, Mike Vogel, Adam Demos et Margaret Odette.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand Billie Connelly se remémore de ses souvenirs, elle se retrouve coincée dans un triangle amoureux entre son mari et son ancien partenaire.
 Succombera-t-elle à ses vieux fantasmes ou restera-t-elle sagement dans sa vie de mère de famille ? 
@@ -545,13 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Sarah Shahi (VF : Charlotte Marin) : Billie Connelly
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sarah Shahi (VF : Charlotte Marin) : Billie Connelly
 Mike Vogel (VF : Jean-Pierre Michaël) : Cooper Connelly
 Adam Demos (VF : Stanislas Forlani) : Brad Simon
-Margaret Odette (VF : Géraldine Asselin) : Sasha Snow
-Acteurs récurrents
-Phoenix Reich (VF : Lucille Boudonnat) : Hudson Connelly
+Margaret Odette (VF : Géraldine Asselin) : Sasha Snow</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phoenix Reich (VF : Lucille Boudonnat) : Hudson Connelly
 Jonathan Sadowski (VF : Guillaume Lebon) : Devon
 Li Jun Li (VF : Véronique Picciotto) : Francesca
 Amber Goldfarb (VF : Olivia Dutron) : Trina
@@ -561,9 +614,43 @@
 Cleo Anthony (VF : Baptiste Marc) : Kam
 Darius Homayoun (VF : Romain Altché) : Magid
 Dylan Bruce (VF : Jérémy Bardeau) : Spencer
-Wallis Day (VF : Dorothée Pousséo) : Gigi
-Invités
-Jennifer Dale (VF : Olivia Dutron) : Mme Mann
+Wallis Day (VF : Dorothée Pousséo) : Gigi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jennifer Dale (VF : Olivia Dutron) : Mme Mann
 Hrant Alianak : M. Mann
 Hannah Galway (VF : Anne-Laure Gruet) : Emily
 Alex Paxton-Beesley (VF : Camille Donda) : Judy
@@ -574,48 +661,158 @@
 Société de doublage : Cinéphase
 Direction artistique : Coco Noël
 Adaptation des dialogues : Rachel Campard et Mirentxu Pascal d'Audaux
- Source et légende : version française (VF) sur RS Doublage[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+ Source et légende : version française (VF) sur RS Doublage</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Développement
-Le 19 août 2019, Netflix commande la série dramatique de Stacy Rukeyser[3].
-Le 27 septembre 2021, la série est renouvelée pour une deuxième saison[4].
-Le 7 avril 2023, Netflix annonce l'annulation de la série après deux saisonsr[5].
-Attribution des rôles
-Le 30 janvier 2020, Sarah Shahi a obtenu le rôle principal de Billie Connelly[6].
-Le 5 mars 2020, il est annoncé que Adam Demos, Mike Vogel et Margaret Odette ont été engagés dans les rôles principaux[7].
-En février 2022, la production ajoute à la distribution de la deuxième saison : Craig Bierko, Cleo Anthony, Darius Homayoun, Dylan Bruce et Wallis Day[8].
-Tournage
-Le tournage a lieu à Toronto en Ontario au Canada du 31 août au 10 décembre 2020[9].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 19 août 2019, Netflix commande la série dramatique de Stacy Rukeyser.
+Le 27 septembre 2021, la série est renouvelée pour une deuxième saison.
+Le 7 avril 2023, Netflix annonce l'annulation de la série après deux saisonsr.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 janvier 2020, Sarah Shahi a obtenu le rôle principal de Billie Connelly.
+Le 5 mars 2020, il est annoncé que Adam Demos, Mike Vogel et Margaret Odette ont été engagés dans les rôles principaux.
+En février 2022, la production ajoute à la distribution de la deuxième saison : Craig Bierko, Cleo Anthony, Darius Homayoun, Dylan Bruce et Wallis Day.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à Toronto en Ontario au Canada du 31 août au 10 décembre 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Sex/Life
 Création : Stacy Rukeyser
 Casting : Denise Chamian
@@ -641,34 +838,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Première saison (2021)
-La saison de huit épisodes a été mise en ligne le 25 juin 2021 sur Netflix, et ne contient pas de titres francophones.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Première saison (2021)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La saison de huit épisodes a été mise en ligne le 25 juin 2021 sur Netflix, et ne contient pas de titres francophones.
 The Wives Are in Connecticut
 Down in the Tube Station at Midnight
 Empire State of Mind
@@ -676,9 +878,43 @@
 The Sound of the Suburbs
 Somewhere Only We Know
 Small Town Saturday Night
-This Must Be the Place
-Deuxième saison (2023)
-Elle a été mise en ligne le 2 mars 2023[10].
+This Must Be the Place</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2023)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Elle a été mise en ligne le 2 mars 2023.
 Welcome to New York
 Georgia on My Mind
 Seasons of Love
@@ -688,31 +924,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sex/Life</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
